--- a/kemsyn_google_form.xlsx
+++ b/kemsyn_google_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAKALIST\kemsyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116FCF6-F5D5-43F9-B9C2-BFC5A8B52AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0D53D-BC8D-47E9-B016-B9BDEF2A032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5BA862F-09D3-4224-9627-19A740074978}"/>
   </bookViews>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351D997-B2A0-4431-AAD0-CC2721BE4E5B}">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:XFD347"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6010000156</v>
+        <v>6010000233</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>146</v>

--- a/kemsyn_google_form.xlsx
+++ b/kemsyn_google_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAKALIST\kemsyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0D53D-BC8D-47E9-B016-B9BDEF2A032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42DEC6A-4F50-4535-9F62-DF65AF77C598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5BA862F-09D3-4224-9627-19A740074978}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
   <si>
     <t>10x1x10</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>55GM</t>
+  </si>
+  <si>
+    <t>Clavmycin 625 DuoTab  (Alu-Alu) (New)</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351D997-B2A0-4431-AAD0-CC2721BE4E5B}">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,119 +2216,119 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6010000072</v>
+        <v>6010000223</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="E44" s="3">
-        <v>67.87</v>
+        <v>204.96</v>
       </c>
       <c r="F44" s="3">
-        <v>24.97</v>
+        <v>45.9</v>
       </c>
       <c r="H44" s="3">
-        <v>24.97</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6010000073</v>
+        <v>6010000072</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>157.54</v>
+        <v>67.87</v>
       </c>
       <c r="F45" s="3">
-        <v>38.71</v>
+        <v>24.97</v>
       </c>
       <c r="H45" s="3">
-        <v>38.71</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6010000169</v>
+        <v>6010000073</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D46" s="1">
+        <v>240</v>
       </c>
       <c r="E46" s="3">
-        <v>113.9</v>
+        <v>157.54</v>
       </c>
       <c r="F46" s="3">
-        <v>13.25</v>
+        <v>38.71</v>
       </c>
       <c r="H46" s="3">
-        <v>13.25</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6010000170</v>
+        <v>6010000169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>119</v>
+        <v>113.9</v>
       </c>
       <c r="F47" s="3">
-        <v>17.88</v>
+        <v>13.25</v>
       </c>
       <c r="H47" s="3">
-        <v>17.88</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6010000140</v>
+        <v>6010000170</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="1">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F48" s="3">
-        <v>15.05</v>
+        <v>17.88</v>
       </c>
       <c r="H48" s="3">
-        <v>15.05</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6010000139</v>
+        <v>6010000140</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>108</v>
@@ -2334,21 +2337,21 @@
         <v>120</v>
       </c>
       <c r="E49" s="3">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F49" s="3">
-        <v>16.559999999999999</v>
+        <v>15.05</v>
       </c>
       <c r="H49" s="3">
-        <v>16.559999999999999</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6010000141</v>
+        <v>6010000139</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>108</v>
@@ -2357,406 +2360,406 @@
         <v>120</v>
       </c>
       <c r="E50" s="3">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F50" s="3">
-        <v>19.47</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="H50" s="3">
-        <v>19.47</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>6010000205</v>
+        <v>6010000141</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="D51" s="1">
+        <v>120</v>
       </c>
       <c r="E51" s="3">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F51" s="3">
-        <v>4.75</v>
+        <v>19.47</v>
       </c>
       <c r="H51" s="3">
-        <v>4.75</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4010013861</v>
+        <v>6010000205</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="1">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="E52" s="3">
-        <v>554</v>
+        <v>20</v>
       </c>
       <c r="F52" s="3">
-        <v>19.52</v>
+        <v>4.75</v>
       </c>
       <c r="H52" s="3">
-        <v>19.52</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4010013583</v>
+        <v>4010013861</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3">
-        <v>210</v>
+        <v>554</v>
       </c>
       <c r="F53" s="3">
-        <v>29.67</v>
+        <v>19.52</v>
       </c>
       <c r="H53" s="3">
-        <v>29.67</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6010000074</v>
+        <v>4010013583</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1">
-        <v>1152</v>
+        <v>240</v>
       </c>
       <c r="E54" s="3">
-        <v>11.4</v>
+        <v>210</v>
       </c>
       <c r="F54" s="3">
-        <v>3.83</v>
+        <v>29.67</v>
       </c>
       <c r="H54" s="3">
-        <v>3.83</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4010013472</v>
+        <v>6010000074</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1">
-        <v>640</v>
+        <v>1152</v>
       </c>
       <c r="E55" s="3">
-        <v>176</v>
+        <v>11.4</v>
       </c>
       <c r="F55" s="3">
-        <v>17.39</v>
+        <v>3.83</v>
       </c>
       <c r="H55" s="3">
-        <v>17.39</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6010000102</v>
+        <v>4010013472</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D56" s="1">
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="E56" s="3">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="F56" s="3">
-        <v>8.07</v>
+        <v>17.39</v>
       </c>
       <c r="H56" s="3">
-        <v>8.07</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6010000103</v>
+        <v>6010000102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>1920</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F57" s="3">
-        <v>4.3499999999999996</v>
+        <v>8.07</v>
       </c>
       <c r="H57" s="3">
-        <v>4.3499999999999996</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6010000197</v>
+        <v>6010000103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1920</v>
       </c>
       <c r="E58" s="3">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="F58" s="3">
-        <v>8.2799999999999994</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H58" s="3">
-        <v>8.2799999999999994</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6010000104</v>
+        <v>6010000197</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1080</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>234.19</v>
+        <v>159</v>
       </c>
       <c r="F59" s="3">
-        <v>12.04</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H59" s="3">
-        <v>12.04</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4010013473</v>
+        <v>6010000104</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="1">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="E60" s="3">
-        <v>912</v>
+        <v>234.19</v>
       </c>
       <c r="F60" s="3">
-        <v>110.4</v>
+        <v>12.04</v>
       </c>
       <c r="H60" s="3">
-        <v>110.4</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6010000150</v>
+        <v>4010013473</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D61" s="1">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E61" s="3">
-        <v>470.35</v>
+        <v>912</v>
       </c>
       <c r="F61" s="3">
-        <v>89.61</v>
+        <v>110.4</v>
       </c>
       <c r="H61" s="3">
-        <v>89.61</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6010000151</v>
+        <v>6010000150</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="1">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="E62" s="3">
-        <v>705.53</v>
+        <v>470.35</v>
       </c>
       <c r="F62" s="3">
-        <v>104.1</v>
+        <v>89.61</v>
       </c>
       <c r="H62" s="3">
-        <v>104.1</v>
+        <v>89.61</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6010000075</v>
+        <v>6010000151</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1">
-        <v>100</v>
+        <v>462</v>
       </c>
       <c r="E63" s="3">
-        <v>109</v>
+        <v>705.53</v>
       </c>
       <c r="F63" s="3">
-        <v>21.42</v>
+        <v>104.1</v>
       </c>
       <c r="H63" s="3">
-        <v>21.42</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6010000194</v>
+        <v>6010000075</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="E64" s="3">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="F64" s="3">
-        <v>40.5</v>
+        <v>21.42</v>
       </c>
       <c r="H64" s="3">
-        <v>40.5</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6010000192</v>
+        <v>6010000194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D65" s="1">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="E65" s="3">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="F65" s="3">
-        <v>26.92</v>
+        <v>40.5</v>
       </c>
       <c r="H65" s="3">
-        <v>26.92</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6010000155</v>
+        <v>6010000192</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D66" s="1">
-        <v>500</v>
+        <v>162</v>
       </c>
       <c r="E66" s="3">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="F66" s="3">
-        <v>91.8</v>
+        <v>26.92</v>
       </c>
       <c r="H66" s="3">
-        <v>91.8</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6010000107</v>
+        <v>6010000155</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E67" s="3">
-        <v>175</v>
+        <v>390</v>
       </c>
       <c r="F67" s="3">
-        <v>16.149999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="H67" s="3">
-        <v>16.149999999999999</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6010000108</v>
+        <v>6010000107</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>58</v>
@@ -2765,693 +2768,693 @@
         <v>480</v>
       </c>
       <c r="E68" s="3">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="F68" s="3">
-        <v>21.83</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="H68" s="3">
-        <v>21.83</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6010000193</v>
+        <v>6010000108</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="E69" s="3">
-        <v>1155</v>
+        <v>325</v>
       </c>
       <c r="F69" s="3">
-        <v>202.45</v>
+        <v>21.83</v>
       </c>
       <c r="H69" s="3">
-        <v>202.45</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6010000216</v>
+        <v>6010000193</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>1</v>
+      <c r="D70" s="1">
+        <v>450</v>
       </c>
       <c r="E70" s="3">
-        <v>1450</v>
+        <v>1155</v>
       </c>
       <c r="F70" s="3">
-        <v>382.5</v>
+        <v>202.45</v>
       </c>
       <c r="H70" s="3">
-        <v>382.5</v>
+        <v>202.45</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6010000109</v>
+        <v>6010000216</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="1">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E71" s="3">
-        <v>210</v>
+        <v>1450</v>
       </c>
       <c r="F71" s="3">
-        <v>21.53</v>
+        <v>382.5</v>
       </c>
       <c r="H71" s="3">
-        <v>21.53</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4010013552</v>
+        <v>6010000109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D72" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E72" s="3">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F72" s="3">
-        <v>17.22</v>
+        <v>21.53</v>
       </c>
       <c r="H72" s="3">
-        <v>17.22</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4010013662</v>
+        <v>4010013552</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E73" s="3">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="F73" s="3">
-        <v>25.53</v>
+        <v>17.22</v>
       </c>
       <c r="H73" s="3">
-        <v>25.53</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6010000076</v>
+        <v>4010013662</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D74" s="1">
-        <v>1152</v>
+        <v>420</v>
       </c>
       <c r="E74" s="3">
-        <v>10.86</v>
+        <v>330</v>
       </c>
       <c r="F74" s="3">
-        <v>4.49</v>
+        <v>25.53</v>
       </c>
       <c r="H74" s="3">
-        <v>4.49</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4010013584</v>
+        <v>6010000076</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D75" s="1">
-        <v>900</v>
+        <v>1152</v>
       </c>
       <c r="E75" s="3">
-        <v>140</v>
+        <v>10.86</v>
       </c>
       <c r="F75" s="3">
-        <v>12.8</v>
+        <v>4.49</v>
       </c>
       <c r="H75" s="3">
-        <v>12.8</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>6010000171</v>
+        <v>4010013584</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D76" s="1">
+        <v>900</v>
       </c>
       <c r="E76" s="3">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F76" s="3">
-        <v>17.940000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="H76" s="3">
-        <v>17.940000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4010013585</v>
+        <v>6010000171</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="1">
-        <v>900</v>
-      </c>
       <c r="E77" s="3">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F77" s="3">
-        <v>14.21</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="H77" s="3">
-        <v>14.21</v>
+        <v>17.940000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6010000172</v>
+        <v>4010013585</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D78" s="1">
+        <v>900</v>
+      </c>
       <c r="E78" s="3">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F78" s="3">
-        <v>18.63</v>
+        <v>14.21</v>
       </c>
       <c r="H78" s="3">
-        <v>18.63</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6010000077</v>
+        <v>6010000172</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1500</v>
+        <v>6</v>
       </c>
       <c r="E79" s="3">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="F79" s="3">
-        <v>10.01</v>
+        <v>18.63</v>
       </c>
       <c r="H79" s="3">
-        <v>10.01</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6010000078</v>
+        <v>6010000077</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D80" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="3">
-        <v>47.03</v>
+        <v>75</v>
       </c>
       <c r="F80" s="3">
-        <v>13.77</v>
+        <v>10.01</v>
       </c>
       <c r="H80" s="3">
-        <v>13.77</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6010000079</v>
+        <v>6010000078</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D81" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
-        <v>321.5</v>
+        <v>47.03</v>
       </c>
       <c r="F81" s="3">
-        <v>19.13</v>
+        <v>13.77</v>
       </c>
       <c r="H81" s="3">
-        <v>19.13</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4010013593</v>
+        <v>6010000079</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D82" s="1">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="E82" s="3">
-        <v>186.7</v>
+        <v>321.5</v>
       </c>
       <c r="F82" s="3">
-        <v>32.43</v>
+        <v>19.13</v>
       </c>
       <c r="H82" s="3">
-        <v>32.43</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4010014329</v>
+        <v>4010013593</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>1</v>
+      <c r="D83" s="1">
+        <v>560</v>
       </c>
       <c r="E83" s="3">
         <v>186.7</v>
       </c>
       <c r="F83" s="3">
-        <v>33.81</v>
+        <v>32.43</v>
       </c>
       <c r="H83" s="3">
-        <v>33.81</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>4010013594</v>
+        <v>4010014329</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="1">
-        <v>560</v>
+      <c r="D84" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E84" s="3">
-        <v>247.74</v>
+        <v>186.7</v>
       </c>
       <c r="F84" s="3">
-        <v>46.23</v>
+        <v>33.81</v>
       </c>
       <c r="H84" s="3">
-        <v>46.23</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>4010014330</v>
+        <v>4010013594</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>1</v>
+      <c r="D85" s="1">
+        <v>560</v>
       </c>
       <c r="E85" s="3">
         <v>247.74</v>
       </c>
       <c r="F85" s="3">
-        <v>49.68</v>
+        <v>46.23</v>
       </c>
       <c r="H85" s="3">
-        <v>49.68</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6010000233</v>
+        <v>4010014330</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
-        <v>360</v>
+        <v>52</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E86" s="3">
-        <v>576.02</v>
+        <v>247.74</v>
       </c>
       <c r="F86" s="3">
-        <v>90.41</v>
+        <v>49.68</v>
       </c>
       <c r="H86" s="3">
-        <v>90.41</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6010000080</v>
+        <v>6010000233</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>1800</v>
+        <v>360</v>
       </c>
       <c r="E87" s="3">
-        <v>40</v>
+        <v>576.02</v>
       </c>
       <c r="F87" s="3">
-        <v>2.2999999999999998</v>
+        <v>90.41</v>
       </c>
       <c r="H87" s="3">
-        <v>2.2999999999999998</v>
+        <v>90.41</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6010000113</v>
+        <v>6010000080</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D88" s="1">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E88" s="3">
-        <v>65.5</v>
+        <v>40</v>
       </c>
       <c r="F88" s="3">
-        <v>7.45</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H88" s="3">
-        <v>7.45</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>4010013656</v>
+        <v>6010000113</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D89" s="1">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E89" s="3">
-        <v>145.38</v>
+        <v>65.5</v>
       </c>
       <c r="F89" s="3">
-        <v>23.66</v>
+        <v>7.45</v>
       </c>
       <c r="H89" s="3">
-        <v>23.66</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>4010013595</v>
+        <v>4010013656</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D90" s="1">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E90" s="3">
-        <v>399.5</v>
+        <v>145.38</v>
       </c>
       <c r="F90" s="3">
-        <v>61.2</v>
+        <v>23.66</v>
       </c>
       <c r="H90" s="3">
-        <v>61.2</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6010000114</v>
+        <v>4010013595</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="D91" s="1">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E91" s="3">
-        <v>157</v>
+        <v>399.5</v>
       </c>
       <c r="F91" s="3">
-        <v>13.8</v>
+        <v>61.2</v>
       </c>
       <c r="H91" s="3">
-        <v>13.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6010000081</v>
+        <v>6010000114</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="D92" s="1">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="E92" s="3">
-        <v>1067.06</v>
+        <v>157</v>
       </c>
       <c r="F92" s="3">
-        <v>77.14</v>
+        <v>13.8</v>
       </c>
       <c r="H92" s="3">
-        <v>77.14</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6010000082</v>
+        <v>6010000081</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="E93" s="3">
-        <v>5.98</v>
+        <v>1067.06</v>
       </c>
       <c r="F93" s="3">
-        <v>2.2999999999999998</v>
+        <v>77.14</v>
       </c>
       <c r="H93" s="3">
-        <v>2.2999999999999998</v>
+        <v>77.14</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6010000175</v>
+        <v>6010000082</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2000</v>
       </c>
       <c r="E94" s="3">
-        <v>48.38</v>
+        <v>5.98</v>
       </c>
       <c r="F94" s="3">
-        <v>6.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H94" s="3">
-        <v>6.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6010000176</v>
+        <v>6010000175</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E95" s="3">
-        <v>66.52</v>
+        <v>48.38</v>
       </c>
       <c r="F95" s="3">
-        <v>8.2799999999999994</v>
+        <v>6.9</v>
       </c>
       <c r="H95" s="3">
-        <v>8.2799999999999994</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6010000201</v>
+        <v>6010000176</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E96" s="3">
-        <v>85</v>
+        <v>66.52</v>
       </c>
       <c r="F96" s="3">
-        <v>7.45</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H96" s="3">
-        <v>7.45</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6010000202</v>
+        <v>6010000201</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E97" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F97" s="3">
-        <v>9.11</v>
+        <v>7.45</v>
       </c>
       <c r="H97" s="3">
-        <v>9.11</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4010013671</v>
+        <v>6010000202</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="1">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="E98" s="3">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="F98" s="3">
-        <v>24.84</v>
+        <v>9.11</v>
       </c>
       <c r="H98" s="3">
-        <v>24.84</v>
+        <v>9.11</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4010013465</v>
+        <v>4010013671</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>58</v>
@@ -3460,139 +3463,139 @@
         <v>480</v>
       </c>
       <c r="E99" s="3">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="F99" s="3">
-        <v>11.83</v>
+        <v>24.84</v>
       </c>
       <c r="H99" s="3">
-        <v>11.83</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4010013466</v>
+        <v>4010013465</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="D100" s="1">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="E100" s="3">
-        <v>293.5</v>
+        <v>195</v>
       </c>
       <c r="F100" s="3">
-        <v>18.93</v>
+        <v>11.83</v>
       </c>
       <c r="H100" s="3">
-        <v>18.93</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4010013262</v>
+        <v>4010013466</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="D101" s="1">
         <v>360</v>
       </c>
       <c r="E101" s="3">
-        <v>281</v>
+        <v>293.5</v>
       </c>
       <c r="F101" s="3">
-        <v>31.46</v>
+        <v>18.93</v>
       </c>
       <c r="H101" s="3">
-        <v>31.46</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6010000083</v>
+        <v>4010013262</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D102" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="E102" s="3">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="F102" s="3">
-        <v>9.9499999999999993</v>
+        <v>31.46</v>
       </c>
       <c r="H102" s="3">
-        <v>9.9499999999999993</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6010000084</v>
+        <v>6010000083</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D103" s="1">
-        <v>1280</v>
+        <v>300</v>
       </c>
       <c r="E103" s="3">
-        <v>113.76</v>
+        <v>152</v>
       </c>
       <c r="F103" s="3">
-        <v>15.48</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="H103" s="3">
-        <v>15.48</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6010000115</v>
+        <v>6010000084</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D104" s="1">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="E104" s="3">
-        <v>92</v>
+        <v>113.76</v>
       </c>
       <c r="F104" s="3">
-        <v>5.2</v>
+        <v>15.48</v>
       </c>
       <c r="H104" s="3">
-        <v>5.2</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6010000116</v>
+        <v>6010000115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D105" s="1">
         <v>1200</v>
@@ -3601,64 +3604,64 @@
         <v>92</v>
       </c>
       <c r="F105" s="3">
-        <v>4.7300000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="H105" s="3">
-        <v>4.7300000000000004</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6010000118</v>
+        <v>6010000116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E106" s="3">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F106" s="3">
-        <v>8.75</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H106" s="3">
-        <v>8.75</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6010000148</v>
+        <v>6010000118</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D107" s="1">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="E107" s="3">
         <v>102</v>
       </c>
       <c r="F107" s="3">
-        <v>8.02</v>
+        <v>8.75</v>
       </c>
       <c r="H107" s="3">
-        <v>8.02</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6010000117</v>
+        <v>6010000148</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>51</v>
@@ -3667,44 +3670,44 @@
         <v>1440</v>
       </c>
       <c r="E108" s="3">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F108" s="3">
-        <v>14.87</v>
+        <v>8.02</v>
       </c>
       <c r="H108" s="3">
-        <v>14.87</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6010000119</v>
+        <v>6010000117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="D109" s="1">
-        <v>480</v>
+        <v>1440</v>
       </c>
       <c r="E109" s="3">
-        <v>64.290000000000006</v>
+        <v>185</v>
       </c>
       <c r="F109" s="3">
-        <v>14.3</v>
+        <v>14.87</v>
       </c>
       <c r="H109" s="3">
-        <v>14.3</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6010000120</v>
+        <v>6010000119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>174</v>
@@ -3713,128 +3716,128 @@
         <v>480</v>
       </c>
       <c r="E110" s="3">
-        <v>211.75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="F110" s="3">
-        <v>15.05</v>
+        <v>14.3</v>
       </c>
       <c r="H110" s="3">
-        <v>15.05</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6010000085</v>
+        <v>6010000120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D111" s="1">
-        <v>1800</v>
+        <v>480</v>
       </c>
       <c r="E111" s="3">
-        <v>13.35</v>
+        <v>211.75</v>
       </c>
       <c r="F111" s="3">
-        <v>2.14</v>
+        <v>15.05</v>
       </c>
       <c r="H111" s="3">
-        <v>2.14</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6010000121</v>
+        <v>6010000085</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="D112" s="1">
-        <v>1620</v>
+        <v>1800</v>
       </c>
       <c r="E112" s="3">
-        <v>57.57</v>
+        <v>13.35</v>
       </c>
       <c r="F112" s="3">
-        <v>4.37</v>
+        <v>2.14</v>
       </c>
       <c r="H112" s="3">
-        <v>4.37</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6010000123</v>
+        <v>6010000121</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D113" s="1">
-        <v>1800</v>
+        <v>1620</v>
       </c>
       <c r="E113" s="3">
-        <v>227.6</v>
+        <v>57.57</v>
       </c>
       <c r="F113" s="3">
-        <v>10.54</v>
+        <v>4.37</v>
       </c>
       <c r="H113" s="3">
-        <v>10.54</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6010000122</v>
+        <v>6010000123</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D114" s="1">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="E114" s="3">
-        <v>151.72999999999999</v>
+        <v>227.6</v>
       </c>
       <c r="F114" s="3">
-        <v>7.6</v>
+        <v>10.54</v>
       </c>
       <c r="H114" s="3">
-        <v>7.6</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6010000124</v>
+        <v>6010000122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D115" s="1">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="E115" s="3">
-        <v>174</v>
+        <v>151.72999999999999</v>
       </c>
       <c r="F115" s="3">
-        <v>12.8</v>
+        <v>7.6</v>
       </c>
       <c r="H115" s="3">
-        <v>12.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3862,102 +3865,102 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6010000230</v>
+        <v>6010000124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D117" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E117" s="3">
         <v>174</v>
       </c>
       <c r="F117" s="3">
-        <v>11.73</v>
+        <v>12.8</v>
       </c>
       <c r="H117" s="3">
-        <v>11.73</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6010000086</v>
+        <v>6010000230</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D118" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="E118" s="3">
-        <v>56.5</v>
+        <v>174</v>
       </c>
       <c r="F118" s="3">
-        <v>7.57</v>
+        <v>11.73</v>
       </c>
       <c r="H118" s="3">
-        <v>7.57</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6010000125</v>
+        <v>6010000086</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D119" s="1">
-        <v>1440</v>
+        <v>400</v>
       </c>
       <c r="E119" s="3">
-        <v>172</v>
+        <v>56.5</v>
       </c>
       <c r="F119" s="3">
-        <v>9.23</v>
+        <v>7.57</v>
       </c>
       <c r="H119" s="3">
-        <v>9.23</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6010000144</v>
+        <v>6010000125</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D120" s="1">
-        <v>100</v>
+        <v>1440</v>
       </c>
       <c r="E120" s="3">
-        <v>49.28</v>
+        <v>172</v>
       </c>
       <c r="F120" s="3">
-        <v>22.58</v>
+        <v>9.23</v>
       </c>
       <c r="H120" s="3">
-        <v>22.58</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6010000147</v>
+        <v>6010000144</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>108</v>
@@ -3966,113 +3969,113 @@
         <v>100</v>
       </c>
       <c r="E121" s="3">
-        <v>107.5</v>
+        <v>49.28</v>
       </c>
       <c r="F121" s="3">
-        <v>35.380000000000003</v>
+        <v>22.58</v>
       </c>
       <c r="H121" s="3">
-        <v>35.380000000000003</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6010000142</v>
+        <v>6010000147</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D122" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E122" s="3">
-        <v>35.700000000000003</v>
+        <v>107.5</v>
       </c>
       <c r="F122" s="3">
-        <v>11.29</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="H122" s="3">
-        <v>11.29</v>
+        <v>35.380000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6010000143</v>
+        <v>6010000142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D123" s="1">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="E123" s="3">
-        <v>467</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F123" s="3">
-        <v>112.91</v>
+        <v>11.29</v>
       </c>
       <c r="H123" s="3">
-        <v>112.91</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6010000145</v>
+        <v>6010000143</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D124" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E124" s="3">
-        <v>246.4</v>
+        <v>467</v>
       </c>
       <c r="F124" s="3">
-        <v>98.37</v>
+        <v>112.91</v>
       </c>
       <c r="H124" s="3">
-        <v>98.37</v>
+        <v>112.91</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4010013596</v>
+        <v>6010000145</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D125" s="1">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="E125" s="3">
-        <v>142</v>
+        <v>246.4</v>
       </c>
       <c r="F125" s="3">
-        <v>13.32</v>
+        <v>98.37</v>
       </c>
       <c r="H125" s="3">
-        <v>13.32</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>4010013655</v>
+        <v>4010013596</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>52</v>
@@ -4081,297 +4084,297 @@
         <v>400</v>
       </c>
       <c r="E126" s="3">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="F126" s="3">
-        <v>17.22</v>
+        <v>13.32</v>
       </c>
       <c r="H126" s="3">
-        <v>17.22</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>4010013474</v>
+        <v>4010013655</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D127" s="1">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="E127" s="3">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F127" s="3">
-        <v>46.37</v>
+        <v>17.22</v>
       </c>
       <c r="H127" s="3">
-        <v>46.37</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4010013475</v>
+        <v>4010013474</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D128" s="1">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="E128" s="3">
-        <v>473</v>
+        <v>299</v>
       </c>
       <c r="F128" s="3">
-        <v>68.89</v>
+        <v>46.37</v>
       </c>
       <c r="H128" s="3">
-        <v>68.89</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6010000087</v>
+        <v>4010013475</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1">
-        <v>2000</v>
+        <v>540</v>
       </c>
       <c r="E129" s="3">
-        <v>20</v>
+        <v>473</v>
       </c>
       <c r="F129" s="3">
-        <v>1.92</v>
+        <v>68.89</v>
       </c>
       <c r="H129" s="3">
-        <v>1.92</v>
+        <v>68.89</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6010000126</v>
+        <v>6010000087</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D130" s="1">
         <v>2000</v>
       </c>
       <c r="E130" s="3">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="F130" s="3">
-        <v>6.9</v>
+        <v>1.92</v>
       </c>
       <c r="H130" s="3">
-        <v>6.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6010000127</v>
+        <v>6010000126</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E131" s="3">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="F131" s="3">
-        <v>10.43</v>
+        <v>6.9</v>
       </c>
       <c r="H131" s="3">
-        <v>10.43</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6010000088</v>
+        <v>6010000127</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D132" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E132" s="3">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="F132" s="3">
-        <v>14.54</v>
+        <v>10.43</v>
       </c>
       <c r="H132" s="3">
-        <v>14.54</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4010013666</v>
+        <v>6010000088</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E133" s="3">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="F133" s="3">
-        <v>21.92</v>
+        <v>14.54</v>
       </c>
       <c r="H133" s="3">
-        <v>21.92</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6010000128</v>
+        <v>4010013666</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D134" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E134" s="3">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="F134" s="3">
-        <v>53.13</v>
+        <v>21.92</v>
       </c>
       <c r="H134" s="3">
-        <v>53.13</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6010000129</v>
+        <v>6010000128</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D135" s="1">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="E135" s="3">
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="F135" s="3">
-        <v>89.17</v>
+        <v>53.13</v>
       </c>
       <c r="H135" s="3">
-        <v>89.17</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6010000130</v>
+        <v>6010000129</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D136" s="1">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="E136" s="3">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="F136" s="3">
-        <v>131.1</v>
+        <v>89.17</v>
       </c>
       <c r="H136" s="3">
-        <v>131.1</v>
+        <v>89.17</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4010013549</v>
+        <v>6010000130</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D137" s="1">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="E137" s="3">
-        <v>339</v>
+        <v>630</v>
       </c>
       <c r="F137" s="3">
-        <v>19.32</v>
+        <v>131.1</v>
       </c>
       <c r="H137" s="3">
-        <v>19.32</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>4010013249</v>
+        <v>4010013549</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D138" s="1">
-        <v>1120</v>
+        <v>840</v>
       </c>
       <c r="E138" s="3">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="F138" s="3">
-        <v>18.55</v>
+        <v>19.32</v>
       </c>
       <c r="H138" s="3">
-        <v>18.55</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4010013573</v>
+        <v>4010013249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -4380,67 +4383,67 @@
         <v>1120</v>
       </c>
       <c r="E139" s="3">
-        <v>634</v>
+        <v>431</v>
       </c>
       <c r="F139" s="3">
-        <v>25.17</v>
+        <v>18.55</v>
       </c>
       <c r="H139" s="3">
-        <v>25.17</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4010013574</v>
+        <v>4010013573</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="E140" s="3">
-        <v>192</v>
+        <v>634</v>
       </c>
       <c r="F140" s="3">
-        <v>13.8</v>
+        <v>25.17</v>
       </c>
       <c r="H140" s="3">
-        <v>13.8</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4010013700</v>
+        <v>4010013574</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D141" s="1">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="E141" s="3">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F141" s="3">
-        <v>31.46</v>
+        <v>13.8</v>
       </c>
       <c r="H141" s="3">
-        <v>31.46</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4010013701</v>
+        <v>4010013700</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
@@ -4449,110 +4452,110 @@
         <v>600</v>
       </c>
       <c r="E142" s="3">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F142" s="3">
-        <v>34.5</v>
+        <v>31.46</v>
       </c>
       <c r="H142" s="3">
-        <v>34.5</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6010000198</v>
+        <v>4010013701</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>600</v>
       </c>
       <c r="E143" s="3">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="F143" s="3">
-        <v>26.91</v>
+        <v>34.5</v>
       </c>
       <c r="H143" s="3">
-        <v>26.91</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4010013586</v>
+        <v>6010000198</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="1">
-        <v>480</v>
+        <v>7</v>
       </c>
       <c r="E144" s="3">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="F144" s="3">
-        <v>26.5</v>
+        <v>26.91</v>
       </c>
       <c r="H144" s="3">
-        <v>26.5</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4010013587</v>
+        <v>4010013586</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E145" s="3">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="F145" s="3">
-        <v>29.81</v>
+        <v>26.5</v>
       </c>
       <c r="H145" s="3">
-        <v>29.81</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4010013588</v>
+        <v>4010013587</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E146" s="3">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="F146" s="3">
-        <v>16.559999999999999</v>
+        <v>29.81</v>
       </c>
       <c r="H146" s="3">
-        <v>16.559999999999999</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4010013479</v>
+        <v>4010013588</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
@@ -4561,136 +4564,136 @@
         <v>600</v>
       </c>
       <c r="E147" s="3">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F147" s="3">
-        <v>20.7</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="H147" s="3">
-        <v>20.7</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4010013664</v>
+        <v>4010013479</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D148" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E148" s="3">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="F148" s="3">
-        <v>39.74</v>
+        <v>20.7</v>
       </c>
       <c r="H148" s="3">
-        <v>39.74</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4010013657</v>
+        <v>4010013664</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="E149" s="3">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F149" s="3">
-        <v>41.07</v>
+        <v>39.74</v>
       </c>
       <c r="H149" s="3">
-        <v>41.07</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4010013658</v>
+        <v>4010013657</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D150" s="1">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="E150" s="3">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F150" s="3">
-        <v>24.51</v>
+        <v>41.07</v>
       </c>
       <c r="H150" s="3">
-        <v>24.51</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4010013548</v>
+        <v>4010013658</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D151" s="1">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E151" s="3">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F151" s="3">
-        <v>66.239999999999995</v>
+        <v>24.51</v>
       </c>
       <c r="H151" s="3">
-        <v>66.239999999999995</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4010013480</v>
+        <v>4010013548</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D152" s="1">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="E152" s="3">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="F152" s="3">
-        <v>34.630000000000003</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="H152" s="3">
-        <v>34.630000000000003</v>
+        <v>66.239999999999995</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>4010013477</v>
+        <v>4010013480</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>65</v>
@@ -4699,314 +4702,314 @@
         <v>480</v>
       </c>
       <c r="E153" s="3">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="F153" s="3">
-        <v>27.6</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="H153" s="3">
-        <v>27.6</v>
+        <v>34.630000000000003</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>4010013428</v>
+        <v>4010013477</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="D154" s="1">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="E154" s="3">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="F154" s="3">
-        <v>55.14</v>
+        <v>27.6</v>
       </c>
       <c r="H154" s="3">
-        <v>55.14</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6010000131</v>
+        <v>4010013428</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="D155" s="1">
-        <v>1120</v>
+        <v>40</v>
       </c>
       <c r="E155" s="3">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="F155" s="3">
-        <v>6.02</v>
+        <v>55.14</v>
       </c>
       <c r="H155" s="3">
-        <v>6.02</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>4010013699</v>
+        <v>6010000131</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D156" s="1">
-        <v>200</v>
+        <v>1120</v>
       </c>
       <c r="E156" s="3">
-        <v>825</v>
+        <v>58</v>
       </c>
       <c r="F156" s="3">
-        <v>110.65</v>
+        <v>6.02</v>
       </c>
       <c r="H156" s="3">
-        <v>110.65</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6010000089</v>
+        <v>4010013699</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D157" s="1">
-        <v>1280</v>
+        <v>200</v>
       </c>
       <c r="E157" s="3">
-        <v>205.64</v>
+        <v>825</v>
       </c>
       <c r="F157" s="3">
-        <v>14.17</v>
+        <v>110.65</v>
       </c>
       <c r="H157" s="3">
-        <v>14.17</v>
+        <v>110.65</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6010000132</v>
+        <v>6010000089</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D158" s="1">
-        <v>360</v>
+        <v>1280</v>
       </c>
       <c r="E158" s="3">
-        <v>230</v>
+        <v>205.64</v>
       </c>
       <c r="F158" s="3">
-        <v>21.39</v>
+        <v>14.17</v>
       </c>
       <c r="H158" s="3">
-        <v>21.39</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6010000146</v>
+        <v>6010000132</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="D159" s="1">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="E159" s="3">
-        <v>243.07</v>
+        <v>230</v>
       </c>
       <c r="F159" s="3">
-        <v>26.83</v>
+        <v>21.39</v>
       </c>
       <c r="H159" s="3">
-        <v>26.83</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6010000090</v>
+        <v>6010000146</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="D160" s="1">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E160" s="3">
-        <v>447.34</v>
+        <v>243.07</v>
       </c>
       <c r="F160" s="3">
-        <v>58.5</v>
+        <v>26.83</v>
       </c>
       <c r="H160" s="3">
-        <v>58.5</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6010000200</v>
+        <v>6010000090</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>229</v>
+        <v>48</v>
+      </c>
+      <c r="D161" s="1">
+        <v>240</v>
       </c>
       <c r="E161" s="3">
-        <v>139</v>
+        <v>447.34</v>
       </c>
       <c r="F161" s="3">
-        <v>10.18</v>
+        <v>58.5</v>
       </c>
       <c r="H161" s="3">
-        <v>10.18</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6010000133</v>
+        <v>6010000200</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D162" s="1">
-        <v>720</v>
+        <v>229</v>
       </c>
       <c r="E162" s="3">
-        <v>65.180000000000007</v>
+        <v>139</v>
       </c>
       <c r="F162" s="3">
-        <v>8.8699999999999992</v>
+        <v>10.18</v>
       </c>
       <c r="H162" s="3">
-        <v>8.8699999999999992</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6010000199</v>
+        <v>6010000133</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="D163" s="1">
+        <v>720</v>
       </c>
       <c r="E163" s="3">
-        <v>114</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="F163" s="3">
-        <v>14.08</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="H163" s="3">
-        <v>14.08</v>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6010000134</v>
+        <v>6010000199</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D164" s="1">
-        <v>720</v>
+        <v>4</v>
       </c>
       <c r="E164" s="3">
-        <v>113.57</v>
+        <v>114</v>
       </c>
       <c r="F164" s="3">
-        <v>11.83</v>
+        <v>14.08</v>
       </c>
       <c r="H164" s="3">
-        <v>11.83</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6010000135</v>
+        <v>6010000134</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D165" s="1">
-        <v>920</v>
+        <v>720</v>
       </c>
       <c r="E165" s="3">
-        <v>174.72</v>
+        <v>113.57</v>
       </c>
       <c r="F165" s="3">
-        <v>21.29</v>
+        <v>11.83</v>
       </c>
       <c r="H165" s="3">
-        <v>21.29</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6010000136</v>
+        <v>6010000135</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D166" s="1">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="E166" s="3">
-        <v>180</v>
+        <v>174.72</v>
       </c>
       <c r="F166" s="3">
-        <v>17.149999999999999</v>
+        <v>21.29</v>
       </c>
       <c r="H166" s="3">
-        <v>17.149999999999999</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6010000137</v>
+        <v>6010000136</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>52</v>
@@ -5015,457 +5018,480 @@
         <v>400</v>
       </c>
       <c r="E167" s="3">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="F167" s="3">
-        <v>20.11</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="H167" s="3">
-        <v>20.11</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>4010013269</v>
+        <v>6010000137</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D168" s="1">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E168" s="3">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F168" s="3">
-        <v>15.18</v>
+        <v>20.11</v>
       </c>
       <c r="H168" s="3">
-        <v>15.18</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6010000177</v>
+        <v>4010013269</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>237</v>
+        <v>4</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1200</v>
       </c>
       <c r="E169" s="3">
-        <v>10.3</v>
+        <v>145</v>
       </c>
       <c r="F169" s="3">
-        <v>4.6399999999999997</v>
+        <v>15.18</v>
       </c>
       <c r="H169" s="3">
-        <v>4.6399999999999997</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6010000178</v>
+        <v>6010000177</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E170" s="3">
-        <v>22.84</v>
+        <v>10.3</v>
       </c>
       <c r="F170" s="3">
-        <v>10.039999999999999</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H170" s="3">
-        <v>10.039999999999999</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>4010013597</v>
+        <v>6010000178</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="1">
-        <v>1800</v>
+        <v>239</v>
       </c>
       <c r="E171" s="3">
-        <v>124.21</v>
+        <v>22.84</v>
       </c>
       <c r="F171" s="3">
-        <v>12</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="H171" s="3">
-        <v>12</v>
+        <v>10.039999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4010013368</v>
+        <v>4010013597</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="E172" s="3">
-        <v>315</v>
+        <v>124.21</v>
       </c>
       <c r="F172" s="3">
-        <v>24.01</v>
+        <v>12</v>
       </c>
       <c r="H172" s="3">
-        <v>24.01</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4010013369</v>
+        <v>4010013368</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="1">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="E173" s="3">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F173" s="3">
-        <v>19.04</v>
+        <v>24.01</v>
       </c>
       <c r="H173" s="3">
-        <v>19.04</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4010013598</v>
+        <v>4010013369</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1">
         <v>360</v>
       </c>
       <c r="E174" s="3">
-        <v>538</v>
+        <v>288</v>
       </c>
       <c r="F174" s="3">
-        <v>62.1</v>
+        <v>19.04</v>
       </c>
       <c r="H174" s="3">
-        <v>62.1</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>4010013399</v>
+        <v>4010013598</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="D175" s="1">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="E175" s="3">
-        <v>194.67</v>
+        <v>538</v>
       </c>
       <c r="F175" s="3">
-        <v>49.68</v>
+        <v>62.1</v>
       </c>
       <c r="H175" s="3">
-        <v>49.68</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6010000091</v>
+        <v>4010013399</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D176" s="1">
-        <v>540</v>
+        <v>1200</v>
       </c>
       <c r="E176" s="3">
-        <v>71.98</v>
+        <v>194.67</v>
       </c>
       <c r="F176" s="3">
-        <v>9.18</v>
+        <v>49.68</v>
       </c>
       <c r="H176" s="3">
-        <v>9.18</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6010000203</v>
+        <v>6010000091</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="D177" s="1">
+        <v>540</v>
       </c>
       <c r="E177" s="3">
-        <v>135</v>
+        <v>71.98</v>
       </c>
       <c r="F177" s="3">
-        <v>11.59</v>
+        <v>9.18</v>
       </c>
       <c r="H177" s="3">
-        <v>11.59</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>4010013592</v>
+        <v>6010000203</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D178" s="1">
-        <v>720</v>
+        <v>160</v>
       </c>
       <c r="E178" s="3">
-        <v>839.96</v>
+        <v>135</v>
       </c>
       <c r="F178" s="3">
-        <v>99.97</v>
+        <v>11.59</v>
       </c>
       <c r="H178" s="3">
-        <v>99.97</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>4010013659</v>
+        <v>4010013592</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D179" s="1">
         <v>720</v>
       </c>
       <c r="E179" s="3">
-        <v>360</v>
+        <v>839.96</v>
       </c>
       <c r="F179" s="3">
-        <v>15.97</v>
+        <v>99.97</v>
       </c>
       <c r="H179" s="3">
-        <v>15.97</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>4010013273</v>
+        <v>4010013659</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D180" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="E180" s="3">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="F180" s="3">
-        <v>29.57</v>
+        <v>15.97</v>
       </c>
       <c r="H180" s="3">
-        <v>29.57</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>4010013271</v>
+        <v>4010013273</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D181" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E181" s="3">
-        <v>425</v>
+        <v>199</v>
       </c>
       <c r="F181" s="3">
-        <v>31.85</v>
+        <v>29.57</v>
       </c>
       <c r="H181" s="3">
-        <v>31.85</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>4010013272</v>
+        <v>4010013271</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D182" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E182" s="3">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="F182" s="3">
-        <v>26.02</v>
+        <v>31.85</v>
       </c>
       <c r="H182" s="3">
-        <v>26.02</v>
+        <v>31.85</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>4010013663</v>
+        <v>4010013272</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D183" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="E183" s="3">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="F183" s="3">
-        <v>30.52</v>
+        <v>26.02</v>
       </c>
       <c r="H183" s="3">
-        <v>30.52</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>6010000092</v>
+        <v>4010013663</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D184" s="1">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="E184" s="3">
-        <v>25.2</v>
+        <v>296</v>
       </c>
       <c r="F184" s="3">
-        <v>2.14</v>
+        <v>30.52</v>
       </c>
       <c r="H184" s="3">
-        <v>2.14</v>
+        <v>30.52</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6010000093</v>
+        <v>6010000092</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1">
-        <v>1800</v>
+        <v>3400</v>
       </c>
       <c r="E185" s="3">
-        <v>5.68</v>
+        <v>25.2</v>
       </c>
       <c r="F185" s="3">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="H185" s="3">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6010000161</v>
+        <v>6010000093</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1800</v>
       </c>
       <c r="E186" s="3">
-        <v>195</v>
+        <v>5.68</v>
       </c>
       <c r="F186" s="3">
-        <v>48.3</v>
+        <v>2.09</v>
       </c>
       <c r="H186" s="3">
-        <v>48.3</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
+        <v>6010000161</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E187" s="3">
+        <v>195</v>
+      </c>
+      <c r="F187" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="H187" s="3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>6010000162</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E188" s="3">
         <v>275</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F188" s="3">
         <v>57.5</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H188" s="3">
         <v>57.5</v>
       </c>
     </row>

--- a/kemsyn_google_form.xlsx
+++ b/kemsyn_google_form.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAKALIST\kemsyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217D5DF-0AA4-45EC-976A-B91AEC56A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA491C3-6554-4FB3-B021-281A32785F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5BA862F-09D3-4224-9627-19A740074978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$208</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
-  <si>
-    <t>10x1x10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="285">
   <si>
     <t>-</t>
   </si>
@@ -57,18 +57,6 @@
     <t>Ketoache Injection</t>
   </si>
   <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>10x6x1ml</t>
-  </si>
-  <si>
-    <t>10mlVial</t>
-  </si>
-  <si>
-    <t>20mlVial</t>
-  </si>
-  <si>
     <t>30ml+SWFI</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>Telikem-Plus Trio Tablet</t>
   </si>
   <si>
-    <t>10x5x4ml</t>
-  </si>
-  <si>
     <t>20X10</t>
   </si>
   <si>
@@ -141,12 +126,6 @@
     <t>10X2X15</t>
   </si>
   <si>
-    <t>100GM</t>
-  </si>
-  <si>
-    <t>75GM</t>
-  </si>
-  <si>
     <t>Calwinit D3 Injection</t>
   </si>
   <si>
@@ -741,16 +720,178 @@
     <t>10x5x1ml</t>
   </si>
   <si>
-    <t>20x1x6</t>
-  </si>
-  <si>
-    <t>20x1x3</t>
-  </si>
-  <si>
     <t>20X1X4</t>
   </si>
   <si>
-    <t>10x3x10</t>
+    <t>20X6</t>
+  </si>
+  <si>
+    <t>20X3</t>
+  </si>
+  <si>
+    <t>10X5X4Ml</t>
+  </si>
+  <si>
+    <t>100Gm</t>
+  </si>
+  <si>
+    <t>75Gm</t>
+  </si>
+  <si>
+    <t>10X6X1Ml</t>
+  </si>
+  <si>
+    <t>30Ml+Swfi</t>
+  </si>
+  <si>
+    <t>30Ml</t>
+  </si>
+  <si>
+    <t>10MlVial</t>
+  </si>
+  <si>
+    <t>20MlVial</t>
+  </si>
+  <si>
+    <t>10X15</t>
+  </si>
+  <si>
+    <t>1X100Ml</t>
+  </si>
+  <si>
+    <t>7.5Ml</t>
+  </si>
+  <si>
+    <t>10X1X15</t>
+  </si>
+  <si>
+    <t>2MlX96</t>
+  </si>
+  <si>
+    <t>1X5Ml</t>
+  </si>
+  <si>
+    <t>10X10</t>
+  </si>
+  <si>
+    <t>20MlVail</t>
+  </si>
+  <si>
+    <t>4X5X10</t>
+  </si>
+  <si>
+    <t>5Ml</t>
+  </si>
+  <si>
+    <t>20X1X15</t>
+  </si>
+  <si>
+    <t>10X2X10</t>
+  </si>
+  <si>
+    <t>20X20</t>
+  </si>
+  <si>
+    <t>1X15Gm</t>
+  </si>
+  <si>
+    <t>1X250Gm</t>
+  </si>
+  <si>
+    <t>1X500Ml</t>
+  </si>
+  <si>
+    <t>20X1X1</t>
+  </si>
+  <si>
+    <t>200Ml</t>
+  </si>
+  <si>
+    <t>1Ml</t>
+  </si>
+  <si>
+    <t>1X200Ml</t>
+  </si>
+  <si>
+    <t>10Ml</t>
+  </si>
+  <si>
+    <t>12X5X10</t>
+  </si>
+  <si>
+    <t>30X15</t>
+  </si>
+  <si>
+    <t>10X1X14</t>
+  </si>
+  <si>
+    <t>20X5X1Ml</t>
+  </si>
+  <si>
+    <t>35Gm</t>
+  </si>
+  <si>
+    <t>55Gm</t>
+  </si>
+  <si>
+    <t>10X5X1Ml</t>
+  </si>
+  <si>
+    <t>96Vial</t>
+  </si>
+  <si>
+    <t>1Syringe</t>
+  </si>
+  <si>
+    <t>7.5MlVial</t>
+  </si>
+  <si>
+    <t>10X1X5Ml</t>
+  </si>
+  <si>
+    <t>10X5X</t>
+  </si>
+  <si>
+    <t>10X1X1Ml</t>
+  </si>
+  <si>
+    <t>10X8X2Ml</t>
+  </si>
+  <si>
+    <t>20X5X2Ml</t>
+  </si>
+  <si>
+    <t>10X5X2Ml</t>
+  </si>
+  <si>
+    <t>10X1X20Ml</t>
+  </si>
+  <si>
+    <t>6X5X5Ml</t>
+  </si>
+  <si>
+    <t>20X5X3Ml</t>
+  </si>
+  <si>
+    <t>10X5X10</t>
+  </si>
+  <si>
+    <t>5X2X15</t>
+  </si>
+  <si>
+    <t>60ML</t>
+  </si>
+  <si>
+    <t>500ML</t>
+  </si>
+  <si>
+    <t>125GM</t>
+  </si>
+  <si>
+    <t>20x1x10</t>
+  </si>
+  <si>
+    <t>20X5X1ML</t>
   </si>
 </sst>
 </file>
@@ -1139,15 +1280,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351D997-B2A0-4431-AAD0-CC2721BE4E5B}">
   <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="3"/>
     <col min="7" max="8" width="9.140625" style="1"/>
@@ -1157,34 +1298,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,10 +1333,10 @@
         <v>6010000094</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>1200</v>
@@ -1215,10 +1356,10 @@
         <v>6010000095</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>1200</v>
@@ -1238,10 +1379,10 @@
         <v>6010000096</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>1440</v>
@@ -1261,10 +1402,10 @@
         <v>4010013388</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1280</v>
@@ -1284,10 +1425,10 @@
         <v>4010013265</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>600</v>
@@ -1307,10 +1448,10 @@
         <v>6010000138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D7" s="1">
         <v>60</v>
@@ -1330,10 +1471,10 @@
         <v>4010013476</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>420</v>
@@ -1353,13 +1494,13 @@
         <v>6010000097</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>78.75</v>
@@ -1376,10 +1517,10 @@
         <v>6010000098</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>2000</v>
@@ -1399,13 +1540,13 @@
         <v>4010013578</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>51.87</v>
@@ -1422,10 +1563,10 @@
         <v>4010013694</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>240</v>
@@ -1445,10 +1586,10 @@
         <v>4010013259</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>240</v>
@@ -1468,10 +1609,10 @@
         <v>4010013260</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>600</v>
@@ -1491,10 +1632,10 @@
         <v>6010000195</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>1080</v>
@@ -1514,10 +1655,10 @@
         <v>4010013692</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>240</v>
@@ -1537,10 +1678,10 @@
         <v>4010013693</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>240</v>
@@ -1560,13 +1701,13 @@
         <v>4010013580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>200.62</v>
@@ -1583,13 +1724,13 @@
         <v>4010013551</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>206.2</v>
@@ -1606,10 +1747,10 @@
         <v>4010013660</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
         <v>1200</v>
@@ -1629,10 +1770,10 @@
         <v>6010000065</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1">
         <v>2500</v>
@@ -1652,10 +1793,10 @@
         <v>4010013582</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D22" s="1">
         <v>24</v>
@@ -1675,10 +1816,10 @@
         <v>4010013581</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D23" s="1">
         <v>24</v>
@@ -1698,10 +1839,10 @@
         <v>6010000066</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D24" s="1">
         <v>2500</v>
@@ -1721,10 +1862,10 @@
         <v>4010013550</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>360</v>
@@ -1744,10 +1885,10 @@
         <v>4010013478</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
         <v>450</v>
@@ -1767,10 +1908,10 @@
         <v>6010000067</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D27" s="1">
         <v>600</v>
@@ -1790,10 +1931,10 @@
         <v>6010000153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1">
         <v>60</v>
@@ -1813,10 +1954,10 @@
         <v>6010000154</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1">
         <v>100</v>
@@ -1836,10 +1977,10 @@
         <v>6010000158</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>460</v>
@@ -1859,10 +2000,10 @@
         <v>6010000068</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="D31" s="1">
         <v>3400</v>
@@ -1882,10 +2023,10 @@
         <v>6010000159</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1">
         <v>400</v>
@@ -1905,10 +2046,10 @@
         <v>6010000099</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1">
         <v>600</v>
@@ -1928,10 +2069,10 @@
         <v>6010000160</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D34" s="1">
         <v>1020</v>
@@ -1951,10 +2092,10 @@
         <v>6010000100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1">
         <v>31</v>
@@ -1974,13 +2115,13 @@
         <v>6010000234</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>102.69</v>
@@ -1997,10 +2138,10 @@
         <v>6010000191</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="D37" s="1">
         <v>162</v>
@@ -2020,10 +2161,10 @@
         <v>6010000069</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D38" s="1">
         <v>110</v>
@@ -2043,13 +2184,13 @@
         <v>6010000239</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <v>51.35</v>
@@ -2066,10 +2207,10 @@
         <v>6010000217</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1">
         <v>600</v>
@@ -2089,10 +2230,10 @@
         <v>6010000071</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="D41" s="1">
         <v>240</v>
@@ -2112,10 +2253,10 @@
         <v>6010000070</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="D42" s="1">
         <v>420</v>
@@ -2135,10 +2276,10 @@
         <v>4010013389</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
         <v>1120</v>
@@ -2158,10 +2299,10 @@
         <v>4010013266</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
         <v>960</v>
@@ -2181,10 +2322,10 @@
         <v>4010013267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>960</v>
@@ -2204,10 +2345,10 @@
         <v>4010013553</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1">
         <v>960</v>
@@ -2227,10 +2368,10 @@
         <v>4010013397</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1">
         <v>600</v>
@@ -2250,10 +2391,10 @@
         <v>6010000224</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="D48" s="1">
         <v>17</v>
@@ -2273,10 +2414,10 @@
         <v>6010000189</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1">
         <v>17</v>
@@ -2296,10 +2437,10 @@
         <v>6010000223</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="D50" s="1">
         <v>18</v>
@@ -2319,7 +2460,10 @@
         <v>6010000232</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D51" s="1">
         <v>18</v>
@@ -2339,7 +2483,10 @@
         <v>6010000101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="1">
         <v>18</v>
@@ -2359,7 +2506,10 @@
         <v>6010000072</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D53" s="1">
         <v>200</v>
@@ -2379,10 +2529,13 @@
         <v>6010000240</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>63.63</v>
@@ -2399,7 +2552,10 @@
         <v>6010000073</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D55" s="1">
         <v>240</v>
@@ -2419,10 +2575,13 @@
         <v>6010000169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="3">
         <v>106.79</v>
@@ -2439,10 +2598,13 @@
         <v>6010000170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>119</v>
@@ -2459,7 +2621,10 @@
         <v>6010000140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D58" s="1">
         <v>120</v>
@@ -2479,7 +2644,10 @@
         <v>6010000139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D59" s="1">
         <v>120</v>
@@ -2499,7 +2667,10 @@
         <v>6010000141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D60" s="1">
         <v>120</v>
@@ -2519,10 +2690,13 @@
         <v>6010000205</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>20</v>
@@ -2539,7 +2713,10 @@
         <v>4010013861</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D62" s="1">
         <v>180</v>
@@ -2559,7 +2736,10 @@
         <v>4010013583</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D63" s="1">
         <v>240</v>
@@ -2579,7 +2759,10 @@
         <v>6010000074</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D64" s="1">
         <v>1152</v>
@@ -2599,7 +2782,10 @@
         <v>4010013472</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D65" s="1">
         <v>640</v>
@@ -2619,7 +2805,10 @@
         <v>6010000102</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D66" s="1">
         <v>1200</v>
@@ -2639,7 +2828,10 @@
         <v>6010000103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D67" s="1">
         <v>1920</v>
@@ -2659,7 +2851,10 @@
         <v>6010000196</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D68" s="1">
         <v>4800</v>
@@ -2679,7 +2874,10 @@
         <v>6010000212</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D69" s="1">
         <v>1200</v>
@@ -2699,7 +2897,10 @@
         <v>6010000104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D70" s="1">
         <v>1080</v>
@@ -2719,7 +2920,10 @@
         <v>4010013473</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D71" s="1">
         <v>480</v>
@@ -2739,7 +2943,10 @@
         <v>6010000150</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D72" s="1">
         <v>440</v>
@@ -2759,7 +2966,10 @@
         <v>6010000151</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D73" s="1">
         <v>462</v>
@@ -2779,7 +2989,10 @@
         <v>6010000075</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D74" s="1">
         <v>100</v>
@@ -2799,10 +3012,13 @@
         <v>6010000241</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
         <v>102.19</v>
@@ -2819,7 +3035,10 @@
         <v>6010000194</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D76" s="1">
         <v>17</v>
@@ -2839,7 +3058,10 @@
         <v>6010000192</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D77" s="1">
         <v>162</v>
@@ -2859,7 +3081,10 @@
         <v>6010000155</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D78" s="1">
         <v>500</v>
@@ -2879,7 +3104,10 @@
         <v>6010000228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D79" s="1">
         <v>450</v>
@@ -2899,7 +3127,10 @@
         <v>6010000107</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D80" s="1">
         <v>480</v>
@@ -2919,7 +3150,10 @@
         <v>6010000108</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D81" s="1">
         <v>480</v>
@@ -2939,7 +3173,10 @@
         <v>6010000193</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D82" s="1">
         <v>450</v>
@@ -2959,7 +3196,10 @@
         <v>6010000216</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D83" s="1">
         <v>450</v>
@@ -2979,7 +3219,10 @@
         <v>6010000109</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D84" s="1">
         <v>400</v>
@@ -2999,7 +3242,10 @@
         <v>4010013552</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D85" s="1">
         <v>300</v>
@@ -3019,7 +3265,10 @@
         <v>4010013662</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D86" s="1">
         <v>420</v>
@@ -3039,7 +3288,10 @@
         <v>6010000076</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D87" s="1">
         <v>1152</v>
@@ -3059,10 +3311,13 @@
         <v>6010000110</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="3">
         <v>38.85</v>
@@ -3079,10 +3334,13 @@
         <v>6010000111</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>60.9</v>
@@ -3099,7 +3357,10 @@
         <v>4010013584</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D90" s="1">
         <v>900</v>
@@ -3119,7 +3380,10 @@
         <v>6010000171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D91" s="1">
         <v>960</v>
@@ -3139,7 +3403,10 @@
         <v>4010013585</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D92" s="1">
         <v>900</v>
@@ -3159,7 +3426,10 @@
         <v>6010000172</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D93" s="1">
         <v>960</v>
@@ -3179,7 +3449,10 @@
         <v>6010000077</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D94" s="1">
         <v>1500</v>
@@ -3199,7 +3472,10 @@
         <v>6010000078</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="D95" s="1">
         <v>500</v>
@@ -3219,7 +3495,10 @@
         <v>6010000079</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D96" s="1">
         <v>300</v>
@@ -3239,10 +3518,13 @@
         <v>4010014329</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3">
         <v>175.04</v>
@@ -3259,7 +3541,10 @@
         <v>4010013593</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D98" s="1">
         <v>560</v>
@@ -3279,10 +3564,13 @@
         <v>4010014330</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3">
         <v>232.26</v>
@@ -3299,7 +3587,10 @@
         <v>4010013594</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D100" s="1">
         <v>560</v>
@@ -3319,7 +3610,10 @@
         <v>6010000156</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D101" s="1">
         <v>360</v>
@@ -3339,7 +3633,10 @@
         <v>6010000233</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D102" s="1">
         <v>450</v>
@@ -3359,7 +3656,10 @@
         <v>6010000080</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="D103" s="1">
         <v>1800</v>
@@ -3379,7 +3679,10 @@
         <v>6010000113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D104" s="1">
         <v>1600</v>
@@ -3399,7 +3702,10 @@
         <v>4010013656</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D105" s="1">
         <v>1500</v>
@@ -3419,7 +3725,10 @@
         <v>4010013595</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D106" s="1">
         <v>20</v>
@@ -3439,7 +3748,10 @@
         <v>6010000174</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D107" s="1">
         <v>1440</v>
@@ -3459,7 +3771,10 @@
         <v>6010000114</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D108" s="1">
         <v>1100</v>
@@ -3479,7 +3794,10 @@
         <v>6010000081</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D109" s="1">
         <v>122</v>
@@ -3499,7 +3817,10 @@
         <v>6010000082</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="D110" s="1">
         <v>2000</v>
@@ -3519,7 +3840,10 @@
         <v>6010000175</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="D111" s="1">
         <v>900</v>
@@ -3539,7 +3863,10 @@
         <v>6010000176</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="D112" s="1">
         <v>900</v>
@@ -3559,7 +3886,10 @@
         <v>6010000201</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D113" s="1">
         <v>400</v>
@@ -3579,7 +3909,10 @@
         <v>6010000202</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D114" s="1">
         <v>400</v>
@@ -3599,7 +3932,10 @@
         <v>4010013671</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D115" s="1">
         <v>480</v>
@@ -3619,10 +3955,13 @@
         <v>6010000218</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="3">
         <v>145</v>
@@ -3639,7 +3978,10 @@
         <v>4010013466</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D117" s="1">
         <v>360</v>
@@ -3659,7 +4001,10 @@
         <v>4010013465</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D118" s="1">
         <v>480</v>
@@ -3679,7 +4024,10 @@
         <v>4010013262</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D119" s="1">
         <v>360</v>
@@ -3699,7 +4047,10 @@
         <v>6010000083</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D120" s="1">
         <v>300</v>
@@ -3719,7 +4070,10 @@
         <v>6010000084</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D121" s="1">
         <v>500</v>
@@ -3739,7 +4093,10 @@
         <v>6010000115</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D122" s="1">
         <v>1200</v>
@@ -3759,7 +4116,10 @@
         <v>6010000116</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D123" s="1">
         <v>1200</v>
@@ -3779,7 +4139,10 @@
         <v>6010000118</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D124" s="1">
         <v>84</v>
@@ -3799,7 +4162,10 @@
         <v>6010000148</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D125" s="1">
         <v>84</v>
@@ -3819,7 +4185,10 @@
         <v>6010000117</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D126" s="1">
         <v>30</v>
@@ -3839,7 +4208,10 @@
         <v>6010000119</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D127" s="1">
         <v>480</v>
@@ -3859,7 +4231,10 @@
         <v>6010000120</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D128" s="1">
         <v>480</v>
@@ -3879,7 +4254,10 @@
         <v>6010000085</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D129" s="1">
         <v>1800</v>
@@ -3899,7 +4277,10 @@
         <v>6010000121</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D130" s="1">
         <v>1620</v>
@@ -3919,7 +4300,10 @@
         <v>6010000122</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D131" s="1">
         <v>1440</v>
@@ -3939,7 +4323,10 @@
         <v>6010000123</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D132" s="1">
         <v>1800</v>
@@ -3959,7 +4346,10 @@
         <v>6010000124</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D133" s="1">
         <v>800</v>
@@ -3979,7 +4369,10 @@
         <v>6010000230</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D134" s="1">
         <v>1200</v>
@@ -3999,7 +4392,10 @@
         <v>6010000086</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D135" s="1">
         <v>1200</v>
@@ -4019,7 +4415,10 @@
         <v>6010000125</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D136" s="1">
         <v>1440</v>
@@ -4039,10 +4438,13 @@
         <v>6010000214</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" s="3">
         <v>1065</v>
@@ -4059,10 +4461,13 @@
         <v>6010000215</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="3">
         <v>392.82</v>
@@ -4079,7 +4484,10 @@
         <v>6010000142</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D139" s="1">
         <v>600</v>
@@ -4099,7 +4507,10 @@
         <v>6010000143</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D140" s="1">
         <v>50</v>
@@ -4119,7 +4530,10 @@
         <v>6010000144</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D141" s="1">
         <v>100</v>
@@ -4139,7 +4553,10 @@
         <v>6010000147</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D142" s="1">
         <v>100</v>
@@ -4159,7 +4576,10 @@
         <v>6010000145</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="D143" s="1">
         <v>20</v>
@@ -4179,7 +4599,10 @@
         <v>4010013596</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D144" s="1">
         <v>400</v>
@@ -4199,7 +4622,10 @@
         <v>4010013655</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D145" s="1">
         <v>400</v>
@@ -4219,7 +4645,10 @@
         <v>4010013474</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D146" s="1">
         <v>720</v>
@@ -4239,7 +4668,10 @@
         <v>4010013475</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D147" s="1">
         <v>540</v>
@@ -4259,7 +4691,10 @@
         <v>6010000087</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D148" s="1">
         <v>2000</v>
@@ -4279,7 +4714,10 @@
         <v>6010000126</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D149" s="1">
         <v>2000</v>
@@ -4299,7 +4737,10 @@
         <v>6010000127</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D150" s="1">
         <v>800</v>
@@ -4319,7 +4760,10 @@
         <v>6010000227</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D151" s="1">
         <v>1200</v>
@@ -4339,7 +4783,10 @@
         <v>6010000088</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D152" s="1">
         <v>500</v>
@@ -4359,7 +4806,10 @@
         <v>4010013666</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D153" s="1">
         <v>200</v>
@@ -4379,7 +4829,10 @@
         <v>6010000128</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D154" s="1">
         <v>300</v>
@@ -4399,7 +4852,10 @@
         <v>6010000129</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D155" s="1">
         <v>480</v>
@@ -4419,7 +4875,10 @@
         <v>6010000130</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D156" s="1">
         <v>300</v>
@@ -4439,7 +4898,10 @@
         <v>4010013549</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D157" s="1">
         <v>840</v>
@@ -4459,7 +4921,10 @@
         <v>4010013249</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D158" s="1">
         <v>1120</v>
@@ -4479,7 +4944,10 @@
         <v>4010013573</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D159" s="1">
         <v>1120</v>
@@ -4499,7 +4967,10 @@
         <v>4010013574</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D160" s="1">
         <v>840</v>
@@ -4519,7 +4990,10 @@
         <v>4010013700</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D161" s="1">
         <v>600</v>
@@ -4539,7 +5013,10 @@
         <v>4010013701</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D162" s="1">
         <v>600</v>
@@ -4559,7 +5036,10 @@
         <v>6010000198</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D163" s="1">
         <v>1200</v>
@@ -4579,7 +5059,10 @@
         <v>4010013586</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D164" s="1">
         <v>480</v>
@@ -4599,7 +5082,10 @@
         <v>4010013587</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D165" s="1">
         <v>400</v>
@@ -4619,7 +5105,10 @@
         <v>4010013588</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D166" s="1">
         <v>600</v>
@@ -4639,7 +5128,10 @@
         <v>4010013479</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D167" s="1">
         <v>600</v>
@@ -4659,7 +5151,10 @@
         <v>4010013664</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D168" s="1">
         <v>200</v>
@@ -4679,7 +5174,10 @@
         <v>4010013657</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D169" s="1">
         <v>720</v>
@@ -4699,7 +5197,10 @@
         <v>4010013658</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D170" s="1">
         <v>1200</v>
@@ -4719,7 +5220,10 @@
         <v>4010013548</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D171" s="1">
         <v>300</v>
@@ -4739,7 +5243,10 @@
         <v>4010013480</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D172" s="1">
         <v>480</v>
@@ -4759,7 +5266,10 @@
         <v>4010013477</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D173" s="1">
         <v>480</v>
@@ -4779,7 +5289,10 @@
         <v>4010013428</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D174" s="1">
         <v>40</v>
@@ -4799,7 +5312,10 @@
         <v>6010000131</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D175" s="1">
         <v>1120</v>
@@ -4819,7 +5335,10 @@
         <v>4010013699</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D176" s="1">
         <v>200</v>
@@ -4839,7 +5358,10 @@
         <v>6010000089</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="D177" s="1">
         <v>1280</v>
@@ -4859,7 +5381,10 @@
         <v>6010000132</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D178" s="1">
         <v>360</v>
@@ -4879,7 +5404,10 @@
         <v>6010000146</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D179" s="1">
         <v>60</v>
@@ -4899,7 +5427,10 @@
         <v>6010000090</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D180" s="1">
         <v>160</v>
@@ -4919,7 +5450,10 @@
         <v>6010000200</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="D181" s="1">
         <v>400</v>
@@ -4939,7 +5473,10 @@
         <v>6010000133</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D182" s="1">
         <v>720</v>
@@ -4959,7 +5496,10 @@
         <v>6010000199</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D183" s="1">
         <v>1200</v>
@@ -4979,7 +5519,10 @@
         <v>6010000134</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D184" s="1">
         <v>720</v>
@@ -4999,7 +5542,10 @@
         <v>6010000135</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D185" s="1">
         <v>920</v>
@@ -5019,7 +5565,10 @@
         <v>6010000136</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D186" s="1">
         <v>400</v>
@@ -5039,7 +5588,10 @@
         <v>6010000137</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D187" s="1">
         <v>400</v>
@@ -5059,7 +5611,10 @@
         <v>4010013269</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D188" s="1">
         <v>1200</v>
@@ -5079,7 +5634,10 @@
         <v>6010000177</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D189" s="1">
         <v>660</v>
@@ -5099,7 +5657,10 @@
         <v>6010000178</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D190" s="1">
         <v>960</v>
@@ -5119,7 +5680,10 @@
         <v>4010013597</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D191" s="1">
         <v>1800</v>
@@ -5139,7 +5703,10 @@
         <v>4010013368</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D192" s="1">
         <v>600</v>
@@ -5159,7 +5726,10 @@
         <v>4010013369</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D193" s="1">
         <v>360</v>
@@ -5179,7 +5749,10 @@
         <v>4010013598</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D194" s="1">
         <v>360</v>
@@ -5199,7 +5772,10 @@
         <v>4010013399</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D195" s="1">
         <v>1200</v>
@@ -5219,7 +5795,10 @@
         <v>6010000091</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D196" s="1">
         <v>540</v>
@@ -5239,7 +5818,10 @@
         <v>6010000203</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D197" s="1">
         <v>400</v>
@@ -5259,7 +5841,10 @@
         <v>4010013592</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D198" s="1">
         <v>720</v>
@@ -5279,7 +5864,10 @@
         <v>4010013659</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D199" s="1">
         <v>720</v>
@@ -5299,7 +5887,10 @@
         <v>4010013273</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D200" s="1">
         <v>480</v>
@@ -5319,7 +5910,10 @@
         <v>4010013271</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D201" s="1">
         <v>240</v>
@@ -5339,7 +5933,10 @@
         <v>4010013272</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D202" s="1">
         <v>480</v>
@@ -5359,7 +5956,10 @@
         <v>4010013663</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D203" s="1">
         <v>600</v>
@@ -5379,7 +5979,10 @@
         <v>6010000092</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="D204" s="1">
         <v>4000</v>
@@ -5399,7 +6002,10 @@
         <v>6010000245</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D205" s="1">
         <v>4000</v>
@@ -5419,7 +6025,10 @@
         <v>6010000093</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D206" s="1">
         <v>4000</v>
@@ -5439,7 +6048,10 @@
         <v>6010000161</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D207" s="1">
         <v>144</v>
@@ -5459,7 +6071,10 @@
         <v>6010000162</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D208" s="1">
         <v>144</v>
@@ -5475,6 +6090,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J208" xr:uid="{E351D997-B2A0-4431-AAD0-CC2721BE4E5B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J208">
+      <sortCondition ref="B1:B208"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>